--- a/src/test/java/com/nablarch/example/action/ProjectActionTest.xlsx
+++ b/src/test/java/com/nablarch/example/action/ProjectActionTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruki\Desktop\temp\nablarch-example-rest-tidb\src\test\java\com\nablarch\example\action\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1337223A-3E28-4376-AD90-7FA0CC506104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1101D1-5F4B-4C35-BDDA-DA486005C7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" tabRatio="766" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29250" yWindow="480" windowWidth="21600" windowHeight="14310" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -322,11 +322,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>EXPECTED_TABLE=project</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>SETUP_TABLE=project</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EXPECTED_TABLE=project</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -839,9 +839,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -884,7 +882,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1441,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3752281-BB48-4539-A1CE-603E1C3F3453}">
   <dimension ref="A1:IU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1709,7 +1707,7 @@
     </row>
     <row r="2" spans="1:255" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2030,7 +2028,7 @@
     </row>
     <row r="6" spans="1:255" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
